--- a/data/trans_orig/P6705-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6705-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>42430</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31010</v>
+        <v>32251</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>55374</v>
+        <v>56136</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2344673763417452</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1713641741258143</v>
+        <v>0.1782220181171403</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3060001444383515</v>
+        <v>0.3102068333374665</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>45</v>
@@ -764,19 +764,19 @@
         <v>50086</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>39372</v>
+        <v>39097</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>63675</v>
+        <v>63125</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3678672083170497</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2891749561909723</v>
+        <v>0.2871531299772336</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4676730354773788</v>
+        <v>0.4636316076913033</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>85</v>
@@ -785,19 +785,19 @@
         <v>92516</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>76352</v>
+        <v>75518</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>109947</v>
+        <v>109969</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2917426363195</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2407696221384162</v>
+        <v>0.2381414895071916</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.346708839705072</v>
+        <v>0.3467803961488888</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>35842</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>25385</v>
+        <v>26070</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>46396</v>
+        <v>46313</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1980623523957072</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1402802019953533</v>
+        <v>0.1440614550033258</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.256383459008057</v>
+        <v>0.2559252620729109</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>25</v>
@@ -835,19 +835,19 @@
         <v>26607</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>17797</v>
+        <v>18008</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>38239</v>
+        <v>37230</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1954163828633953</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1307133179666206</v>
+        <v>0.1322646876271961</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2808550501174369</v>
+        <v>0.2734455594369061</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>61</v>
@@ -856,19 +856,19 @@
         <v>62448</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>49207</v>
+        <v>47068</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>77482</v>
+        <v>75569</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1969263045415807</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1551693140495182</v>
+        <v>0.1484253778881515</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2443335804343811</v>
+        <v>0.2383024731849089</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>51340</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>39457</v>
+        <v>38235</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>65268</v>
+        <v>63591</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2837082840798134</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2180417528415699</v>
+        <v>0.2112885425575647</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3606716063306126</v>
+        <v>0.351404646696181</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>26</v>
@@ -906,19 +906,19 @@
         <v>27421</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>19387</v>
+        <v>18911</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>38317</v>
+        <v>37499</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2014020580402258</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1423899288319581</v>
+        <v>0.1388921431320732</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2814262710748393</v>
+        <v>0.2754204214203516</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>74</v>
@@ -927,19 +927,19 @@
         <v>78762</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>63675</v>
+        <v>63276</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>94752</v>
+        <v>96311</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2483700799426603</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.200794366797362</v>
+        <v>0.1995364258751526</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2987938383165282</v>
+        <v>0.3037105886839802</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>23792</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15450</v>
+        <v>16188</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34185</v>
+        <v>34967</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.131472429306812</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08537498639077745</v>
+        <v>0.08945462405484769</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1889056801425252</v>
+        <v>0.1932288961432304</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -977,19 +977,19 @@
         <v>12651</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6478</v>
+        <v>7170</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20230</v>
+        <v>21105</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09292108893084233</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04757819235063129</v>
+        <v>0.05266255549487715</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.148584212573955</v>
+        <v>0.1550087231867512</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>34</v>
@@ -998,19 +998,19 @@
         <v>36443</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>26647</v>
+        <v>25641</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>48642</v>
+        <v>48239</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1149203991443352</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08402895867173761</v>
+        <v>0.0808560556707995</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1533902849108793</v>
+        <v>0.1521177675838321</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>27559</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>18785</v>
+        <v>19347</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>38476</v>
+        <v>38670</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1522895578759222</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1038068269888881</v>
+        <v>0.1069143936670092</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2126177490984995</v>
+        <v>0.2136932899527622</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>18</v>
@@ -1048,19 +1048,19 @@
         <v>19387</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12442</v>
+        <v>12110</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>28328</v>
+        <v>28693</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1423932618484868</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09138437872873606</v>
+        <v>0.08894294833289045</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2080594061397154</v>
+        <v>0.2107393284040719</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>45</v>
@@ -1069,19 +1069,19 @@
         <v>46946</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>34023</v>
+        <v>33785</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>61816</v>
+        <v>60112</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1480405800519237</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.107289587082729</v>
+        <v>0.1065373934326305</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1949313769311225</v>
+        <v>0.1895578573644994</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>197507</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>172510</v>
+        <v>171936</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>226552</v>
+        <v>223285</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2173189126685696</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1898140037833939</v>
+        <v>0.189182623926763</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2492766818803574</v>
+        <v>0.2456817758037249</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>111</v>
@@ -1194,19 +1194,19 @@
         <v>118598</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>99578</v>
+        <v>101498</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>137562</v>
+        <v>140158</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2073973001959905</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1741354368042934</v>
+        <v>0.1774936425986774</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.24056042488457</v>
+        <v>0.2450999041824882</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>296</v>
@@ -1215,19 +1215,19 @@
         <v>316106</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>284194</v>
+        <v>281382</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>347858</v>
+        <v>347240</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2134871665312249</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1919349921524513</v>
+        <v>0.1900359393105974</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2349319677346716</v>
+        <v>0.234514367662156</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>140151</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>121158</v>
+        <v>119605</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>163123</v>
+        <v>163538</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1542092682724247</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1333107241655001</v>
+        <v>0.1316021079285761</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1794851832027423</v>
+        <v>0.1799419457681451</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>95</v>
@@ -1265,19 +1265,19 @@
         <v>99563</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>83501</v>
+        <v>82181</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>119321</v>
+        <v>119569</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1741094174964469</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1460220414266011</v>
+        <v>0.1437136169912012</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2086613649928234</v>
+        <v>0.2090946409093069</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>228</v>
@@ -1286,19 +1286,19 @@
         <v>239714</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>212840</v>
+        <v>211755</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>269752</v>
+        <v>270075</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1618947448149195</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1437451701260397</v>
+        <v>0.1430125105619547</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1821814394325628</v>
+        <v>0.1823993439433487</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>256790</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>229964</v>
+        <v>229915</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>287035</v>
+        <v>283375</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2825477457707807</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.253031049008894</v>
+        <v>0.2529769899368193</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3158271715539032</v>
+        <v>0.3117998808897623</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>141</v>
@@ -1336,19 +1336,19 @@
         <v>153587</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>132567</v>
+        <v>131917</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>178730</v>
+        <v>176173</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2685839767199169</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.231825272164988</v>
+        <v>0.2306882531842877</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3125524018378248</v>
+        <v>0.3080805384571572</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>386</v>
@@ -1357,19 +1357,19 @@
         <v>410377</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>373011</v>
+        <v>379104</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>446369</v>
+        <v>446178</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2771549108589861</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.251919559141387</v>
+        <v>0.2560341197692929</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3014630394146068</v>
+        <v>0.3013339241090277</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>175202</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>151846</v>
+        <v>151613</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>198712</v>
+        <v>203832</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1927756939294878</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1670775227173147</v>
+        <v>0.166820991511937</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2186443419468324</v>
+        <v>0.2242781830368074</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>101</v>
@@ -1407,19 +1407,19 @@
         <v>109023</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>89170</v>
+        <v>91405</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>129408</v>
+        <v>129269</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1906534684897061</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1559359387064122</v>
+        <v>0.1598435796252987</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2263008859737503</v>
+        <v>0.2260579897825988</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>266</v>
@@ -1428,19 +1428,19 @@
         <v>284225</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>254872</v>
+        <v>252427</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>314327</v>
+        <v>314469</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1919560863149057</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1721321070460782</v>
+        <v>0.1704811265972209</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.212285713644419</v>
+        <v>0.212381794707959</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>139187</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>118425</v>
+        <v>117989</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>162033</v>
+        <v>162497</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1531483793587373</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1303037168382347</v>
+        <v>0.1298240699390846</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1782865442662615</v>
+        <v>0.1787964068703492</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>86</v>
@@ -1478,19 +1478,19 @@
         <v>91069</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>74041</v>
+        <v>73068</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>110326</v>
+        <v>107552</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1592558370979396</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1294784375383766</v>
+        <v>0.1277769265836791</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1929310814784165</v>
+        <v>0.1880811694699711</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>218</v>
@@ -1499,19 +1499,19 @@
         <v>230256</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>203899</v>
+        <v>203499</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>258926</v>
+        <v>260645</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1555070914799638</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1377066594177952</v>
+        <v>0.1374362464190241</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1748698673791509</v>
+        <v>0.176031041915332</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>36558</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26136</v>
+        <v>25407</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>50572</v>
+        <v>50061</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1155948025266215</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08264077469841473</v>
+        <v>0.08033752096050693</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1599094993580316</v>
+        <v>0.1582908608175258</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>34</v>
@@ -1624,19 +1624,19 @@
         <v>39380</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>28927</v>
+        <v>27010</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>53280</v>
+        <v>51097</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1676465823499603</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1231490547875423</v>
+        <v>0.1149858093620453</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.226823593281568</v>
+        <v>0.2175296480374886</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>68</v>
@@ -1645,19 +1645,19 @@
         <v>75937</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>61562</v>
+        <v>61942</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>95024</v>
+        <v>94841</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1377787962362817</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.111696037914217</v>
+        <v>0.1123856775473769</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1724092539131673</v>
+        <v>0.1720778282204312</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>39592</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>28248</v>
+        <v>29230</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>53153</v>
+        <v>52549</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.125190335410677</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08932001595382026</v>
+        <v>0.09242558433400849</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1680699024946133</v>
+        <v>0.1661598791874569</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>25</v>
@@ -1695,19 +1695,19 @@
         <v>27080</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>17320</v>
+        <v>18612</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>38676</v>
+        <v>39924</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1152838340013386</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07373575195609096</v>
+        <v>0.07923266706083361</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1646494213623564</v>
+        <v>0.1699658478007607</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>63</v>
@@ -1716,19 +1716,19 @@
         <v>66672</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>51433</v>
+        <v>52009</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>82338</v>
+        <v>83437</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.120968274883729</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09331787012014651</v>
+        <v>0.09436410573034724</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1493920186357042</v>
+        <v>0.1513851318826728</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>99907</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>82983</v>
+        <v>82518</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>119265</v>
+        <v>118227</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3159050568453308</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2623896695779514</v>
+        <v>0.2609208969431278</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3771139928709972</v>
+        <v>0.3738309992512319</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>57</v>
@@ -1766,19 +1766,19 @@
         <v>60692</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>48031</v>
+        <v>47014</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>75874</v>
+        <v>75809</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2583766719349184</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2044789833818916</v>
+        <v>0.2001469571528698</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3230112336624889</v>
+        <v>0.3227311505317779</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>145</v>
@@ -1787,19 +1787,19 @@
         <v>160599</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>138307</v>
+        <v>138406</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>184523</v>
+        <v>183156</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2913869840088035</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2509410307757096</v>
+        <v>0.2511198338543023</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3347935246149846</v>
+        <v>0.3323144679216185</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>76745</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>60621</v>
+        <v>61365</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>92839</v>
+        <v>94213</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2426676357238261</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1916816459531371</v>
+        <v>0.1940337158002509</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2935549324380691</v>
+        <v>0.2979012440825843</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>41</v>
@@ -1837,19 +1837,19 @@
         <v>48067</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>35834</v>
+        <v>35100</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>62793</v>
+        <v>63133</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2046295208880977</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1525516623752523</v>
+        <v>0.1494257737268975</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.267322953777426</v>
+        <v>0.2687698783302718</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>109</v>
@@ -1858,19 +1858,19 @@
         <v>124812</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>105219</v>
+        <v>104276</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>148554</v>
+        <v>148077</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2264561381898883</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1909063353744742</v>
+        <v>0.1891955960440413</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2695326793329089</v>
+        <v>0.2686669145786841</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>63454</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>48751</v>
+        <v>49147</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>80397</v>
+        <v>79688</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2006421694935446</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1541513869669556</v>
+        <v>0.1554014672242649</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2542139850553436</v>
+        <v>0.2519735468261926</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>53</v>
@@ -1908,19 +1908,19 @@
         <v>59679</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>46575</v>
+        <v>46646</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>76573</v>
+        <v>76072</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.254063390825685</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1982796375792591</v>
+        <v>0.1985787982074927</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3259835694707231</v>
+        <v>0.3238537460419801</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>111</v>
@@ -1929,19 +1929,19 @@
         <v>123133</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>101700</v>
+        <v>101638</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>144170</v>
+        <v>145897</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2234098066812974</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1845215912030409</v>
+        <v>0.1844089671134835</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2615789689702445</v>
+        <v>0.2647120367815044</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>276495</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>244663</v>
+        <v>244808</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>309366</v>
+        <v>304985</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1966456370823031</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1740066056053265</v>
+        <v>0.1741100070261688</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2200239785417097</v>
+        <v>0.2169082730399968</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>190</v>
@@ -2054,19 +2054,19 @@
         <v>208064</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>181487</v>
+        <v>180397</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>234025</v>
+        <v>236332</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2206662988449001</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1924795632947305</v>
+        <v>0.1913237603805547</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2481997961813266</v>
+        <v>0.250645726971462</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>449</v>
@@ -2075,19 +2075,19 @@
         <v>484559</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>441552</v>
+        <v>445995</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>525673</v>
+        <v>526766</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2062877727145382</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1879786865054484</v>
+        <v>0.1898701806289864</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.223790810705593</v>
+        <v>0.2242563077048786</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>215585</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>189511</v>
+        <v>190003</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>248668</v>
+        <v>243260</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.153326143366582</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1347819921881942</v>
+        <v>0.1351319420568605</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1768548175549886</v>
+        <v>0.1730087653157697</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>145</v>
@@ -2125,19 +2125,19 @@
         <v>153249</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>131373</v>
+        <v>131404</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>177439</v>
+        <v>178742</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1625312701549959</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.139329964675302</v>
+        <v>0.1393624534431619</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1881856763578231</v>
+        <v>0.1895681834817845</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>352</v>
@@ -2146,19 +2146,19 @@
         <v>368834</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>332837</v>
+        <v>334191</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>407027</v>
+        <v>406216</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1570211739982531</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.14169650042698</v>
+        <v>0.1422727813407376</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1732807822616633</v>
+        <v>0.1729354279807948</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>408037</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>372913</v>
+        <v>372320</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>442743</v>
+        <v>444474</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.290200007085676</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2652192415426836</v>
+        <v>0.2647976396125179</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3148827817982221</v>
+        <v>0.3161142106382115</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>224</v>
@@ -2196,19 +2196,19 @@
         <v>241701</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>216365</v>
+        <v>216108</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>270400</v>
+        <v>271236</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2563400179658348</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2294692621139774</v>
+        <v>0.2291973314315172</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2867771801356008</v>
+        <v>0.2876646294077417</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>605</v>
@@ -2217,19 +2217,19 @@
         <v>649738</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>606030</v>
+        <v>604918</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>698864</v>
+        <v>697951</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.276608266324067</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2580008724529422</v>
+        <v>0.2575272702959571</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2975225745133516</v>
+        <v>0.2971335257252423</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>275739</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>244329</v>
+        <v>245003</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>306191</v>
+        <v>308500</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1961078170085827</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1737688821172821</v>
+        <v>0.1742482882393574</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2177659665054889</v>
+        <v>0.2194077066914193</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>154</v>
@@ -2267,19 +2267,19 @@
         <v>169742</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>145421</v>
+        <v>144655</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>195535</v>
+        <v>196621</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1800226802293488</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1542288142790142</v>
+        <v>0.1534160090640602</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2073786126108225</v>
+        <v>0.208529769397288</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>409</v>
@@ -2288,19 +2288,19 @@
         <v>445480</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>406863</v>
+        <v>406157</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>485722</v>
+        <v>487433</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1896510810526263</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1732106757904515</v>
+        <v>0.1729101907893019</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2067828316979796</v>
+        <v>0.2075114685990198</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>230200</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>203093</v>
+        <v>200991</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>261489</v>
+        <v>258318</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1637203954568563</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1444413742221113</v>
+        <v>0.1429465825862034</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1859731528324978</v>
+        <v>0.1837184609077532</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>157</v>
@@ -2338,19 +2338,19 @@
         <v>170135</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>147399</v>
+        <v>149011</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>196299</v>
+        <v>199154</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1804397328049204</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1563265926901103</v>
+        <v>0.1580366626581128</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2081881035426798</v>
+        <v>0.2112158740658396</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>374</v>
@@ -2359,19 +2359,19 @@
         <v>400335</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>363465</v>
+        <v>360686</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>441999</v>
+        <v>435776</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1704317059105154</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1547352539835582</v>
+        <v>0.1535520963987695</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1881690544483107</v>
+        <v>0.1855198675326392</v>
       </c>
     </row>
     <row r="27">
@@ -2702,19 +2702,19 @@
         <v>44576</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34438</v>
+        <v>34809</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>56493</v>
+        <v>56464</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3154701346962481</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2437263108957456</v>
+        <v>0.2463470858146976</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3998092339692925</v>
+        <v>0.3996046952783801</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -2723,19 +2723,19 @@
         <v>15323</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8872</v>
+        <v>9677</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23438</v>
+        <v>23992</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.221666027116397</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.128344678071812</v>
+        <v>0.1399822283486108</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3390553102436663</v>
+        <v>0.3470709796081024</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>58</v>
@@ -2744,19 +2744,19 @@
         <v>59899</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>46636</v>
+        <v>46165</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>74075</v>
+        <v>72794</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2846541532232993</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2216269498683145</v>
+        <v>0.2193869187813808</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3520204941105919</v>
+        <v>0.3459343814422495</v>
       </c>
     </row>
     <row r="5">
@@ -2773,19 +2773,19 @@
         <v>27784</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18501</v>
+        <v>18817</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>37987</v>
+        <v>38128</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1966357344193931</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1309376050790202</v>
+        <v>0.133172842153846</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2688437525283487</v>
+        <v>0.2698373605122688</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -2794,19 +2794,19 @@
         <v>17017</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10383</v>
+        <v>10897</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25432</v>
+        <v>24499</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2461712689428779</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1502030621996482</v>
+        <v>0.1576291134489725</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3678947068978303</v>
+        <v>0.3543984296272247</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>43</v>
@@ -2815,19 +2815,19 @@
         <v>44802</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>34146</v>
+        <v>34057</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>58189</v>
+        <v>58415</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2129088609754866</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1622680764231982</v>
+        <v>0.1618462685915606</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2765272698759851</v>
+        <v>0.2776043971063338</v>
       </c>
     </row>
     <row r="6">
@@ -2844,19 +2844,19 @@
         <v>44799</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>34580</v>
+        <v>34066</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>57537</v>
+        <v>56346</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.317053400580369</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2447266751613869</v>
+        <v>0.2410932344445534</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4071987606248279</v>
+        <v>0.3987731291944011</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>20</v>
@@ -2865,19 +2865,19 @@
         <v>19920</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13459</v>
+        <v>12939</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>29098</v>
+        <v>27821</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2881587777602609</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1946907980832332</v>
+        <v>0.1871810091190186</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4209242431561682</v>
+        <v>0.4024584768414063</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>61</v>
@@ -2886,19 +2886,19 @@
         <v>64719</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>51798</v>
+        <v>52888</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>79212</v>
+        <v>80008</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3075611066450067</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2461572627581541</v>
+        <v>0.2513357988418959</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3764329585577092</v>
+        <v>0.3802160241039114</v>
       </c>
     </row>
     <row r="7">
@@ -2915,19 +2915,19 @@
         <v>12201</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6665</v>
+        <v>6656</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19668</v>
+        <v>19226</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08634605917506981</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04716858628957273</v>
+        <v>0.04710306935043121</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1391955929872203</v>
+        <v>0.1360687198606323</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -2936,19 +2936,19 @@
         <v>8036</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3908</v>
+        <v>3784</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14354</v>
+        <v>14347</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1162550562381198</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05652903218631907</v>
+        <v>0.05474482212595477</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2076499278524361</v>
+        <v>0.2075483094990012</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -2957,19 +2957,19 @@
         <v>20237</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13163</v>
+        <v>12668</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31132</v>
+        <v>30603</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09617158945459248</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06255449287071529</v>
+        <v>0.0602035345350565</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1479477320537924</v>
+        <v>0.1454348795191857</v>
       </c>
     </row>
     <row r="8">
@@ -2986,19 +2986,19 @@
         <v>11939</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5709</v>
+        <v>6023</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>20021</v>
+        <v>20637</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08449467112892001</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04040024387600396</v>
+        <v>0.04262268883322794</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1416955657140673</v>
+        <v>0.1460484830168591</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -3007,19 +3007,19 @@
         <v>8831</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3999</v>
+        <v>4703</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14903</v>
+        <v>15626</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1277488699423444</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0578498253927593</v>
+        <v>0.06803464838806283</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2155867510913905</v>
+        <v>0.2260438895161473</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>19</v>
@@ -3028,19 +3028,19 @@
         <v>20770</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>13153</v>
+        <v>13593</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>31138</v>
+        <v>32726</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09870428970161496</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06250463441983005</v>
+        <v>0.06459632693933423</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1479734435767844</v>
+        <v>0.1555201558475707</v>
       </c>
     </row>
     <row r="9">
@@ -3132,19 +3132,19 @@
         <v>241640</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>216325</v>
+        <v>216405</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>269205</v>
+        <v>270026</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.261741578422205</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2343203586961986</v>
+        <v>0.2344069345497399</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2915999780469614</v>
+        <v>0.2924889892028915</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>143</v>
@@ -3153,19 +3153,19 @@
         <v>141923</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>120843</v>
+        <v>123166</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>163136</v>
+        <v>164266</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2181606597751758</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1857565673637643</v>
+        <v>0.1893278898605343</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.250769197844749</v>
+        <v>0.2525061856317714</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>370</v>
@@ -3174,19 +3174,19 @@
         <v>383563</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>350806</v>
+        <v>349619</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>419238</v>
+        <v>420273</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2437264066884086</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2229118323264405</v>
+        <v>0.2221572021407681</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2663954402927349</v>
+        <v>0.2670529739560086</v>
       </c>
     </row>
     <row r="11">
@@ -3203,19 +3203,19 @@
         <v>176555</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>152557</v>
+        <v>153930</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>201831</v>
+        <v>199706</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1912420712245196</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1652479143434147</v>
+        <v>0.1667354131836776</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2186203992676787</v>
+        <v>0.216318629935264</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>137</v>
@@ -3224,19 +3224,19 @@
         <v>138361</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>116753</v>
+        <v>118433</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>159160</v>
+        <v>159762</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.21268492657301</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1794696303760252</v>
+        <v>0.1820519402090164</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2446568220878067</v>
+        <v>0.2455820976168624</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>302</v>
@@ -3245,19 +3245,19 @@
         <v>314916</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>282596</v>
+        <v>283255</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>346127</v>
+        <v>349808</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2001059670201705</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1795688070780097</v>
+        <v>0.1799879352516053</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.219938186389074</v>
+        <v>0.2222776463080252</v>
       </c>
     </row>
     <row r="12">
@@ -3274,19 +3274,19 @@
         <v>258029</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>230339</v>
+        <v>231838</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>287251</v>
+        <v>286722</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2794935020778531</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.249500494315943</v>
+        <v>0.2511240951802569</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3111466679027239</v>
+        <v>0.3105741231196055</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>175</v>
@@ -3295,19 +3295,19 @@
         <v>183013</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>160675</v>
+        <v>161836</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>206519</v>
+        <v>206627</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2813228070978678</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2469867091661952</v>
+        <v>0.2487707445801012</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3174568193087411</v>
+        <v>0.317622514497634</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>416</v>
@@ -3316,19 +3316,19 @@
         <v>441042</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>406521</v>
+        <v>403740</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>478069</v>
+        <v>475692</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2802496872412722</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2583141575967948</v>
+        <v>0.2565470983773693</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3037781700655627</v>
+        <v>0.3022672857769708</v>
       </c>
     </row>
     <row r="13">
@@ -3345,19 +3345,19 @@
         <v>161569</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>140312</v>
+        <v>139294</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>185217</v>
+        <v>186301</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1750095535299543</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1519844863480982</v>
+        <v>0.1508812940767586</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2006247112947173</v>
+        <v>0.2017987001010497</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>111</v>
@@ -3366,19 +3366,19 @@
         <v>113368</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>93896</v>
+        <v>95044</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>133439</v>
+        <v>134549</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1742662947710215</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1443351175584581</v>
+        <v>0.1460993720089459</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2051190728573624</v>
+        <v>0.2068256117814785</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>265</v>
@@ -3387,19 +3387,19 @@
         <v>274937</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>245691</v>
+        <v>243232</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>305029</v>
+        <v>305835</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1747023104841326</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1561186371352098</v>
+        <v>0.1545559133686268</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1938239611029333</v>
+        <v>0.1943360125914263</v>
       </c>
     </row>
     <row r="14">
@@ -3416,19 +3416,19 @@
         <v>85408</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>68014</v>
+        <v>67117</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>106217</v>
+        <v>102896</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09251329474546799</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07367241261242433</v>
+        <v>0.0727002796333673</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.115053072179592</v>
+        <v>0.1114556982447595</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>70</v>
@@ -3437,19 +3437,19 @@
         <v>73879</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>59333</v>
+        <v>58118</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>90929</v>
+        <v>92233</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1135653117829248</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09120462943103129</v>
+        <v>0.08933833186576497</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.139774375199927</v>
+        <v>0.1417784639920553</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>146</v>
@@ -3458,19 +3458,19 @@
         <v>159288</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>134400</v>
+        <v>137329</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>185787</v>
+        <v>185378</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1012156285660159</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0854015591098537</v>
+        <v>0.08726269043766292</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1180543381639836</v>
+        <v>0.1177942746100226</v>
       </c>
     </row>
     <row r="15">
@@ -3562,19 +3562,19 @@
         <v>70075</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>56348</v>
+        <v>56130</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>88711</v>
+        <v>86582</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2011107528887387</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1617146124782246</v>
+        <v>0.161090844146294</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2545964993325804</v>
+        <v>0.2484849952900649</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>69</v>
@@ -3583,19 +3583,19 @@
         <v>72629</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>57453</v>
+        <v>58353</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>88354</v>
+        <v>88414</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2354626578942251</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1862630452816765</v>
+        <v>0.1891789926586449</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2864433416453134</v>
+        <v>0.2866360737606745</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>135</v>
@@ -3604,19 +3604,19 @@
         <v>142704</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>123711</v>
+        <v>123256</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>167852</v>
+        <v>165540</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.217241207685162</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1883283797653927</v>
+        <v>0.1876352491000173</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.255524938605185</v>
+        <v>0.2520045602911521</v>
       </c>
     </row>
     <row r="17">
@@ -3633,19 +3633,19 @@
         <v>67172</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>52392</v>
+        <v>53264</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>84253</v>
+        <v>84491</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.192780934592035</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1503624590619924</v>
+        <v>0.1528661546798626</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2418027552945201</v>
+        <v>0.2424860300297956</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>48</v>
@@ -3654,19 +3654,19 @@
         <v>48776</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>37080</v>
+        <v>36887</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>61875</v>
+        <v>62500</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1581302199280444</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1202125266306315</v>
+        <v>0.1195873721781746</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2005973410390234</v>
+        <v>0.2026256036261891</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>108</v>
@@ -3675,19 +3675,19 @@
         <v>115948</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>96630</v>
+        <v>96970</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>138934</v>
+        <v>135379</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1765101692163741</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1471015655657055</v>
+        <v>0.1476198333608024</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2115016068150286</v>
+        <v>0.2060898963435659</v>
       </c>
     </row>
     <row r="18">
@@ -3704,19 +3704,19 @@
         <v>100319</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>83006</v>
+        <v>83806</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>118450</v>
+        <v>120405</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2879119120027425</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.238222382785083</v>
+        <v>0.240518407323165</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3399469916811245</v>
+        <v>0.3455553340858403</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>77</v>
@@ -3725,19 +3725,19 @@
         <v>78383</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>63756</v>
+        <v>64903</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>94173</v>
+        <v>94988</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2541161492336335</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2066958829322075</v>
+        <v>0.2104158732426943</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3053059493813684</v>
+        <v>0.3079489538635267</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>168</v>
@@ -3746,19 +3746,19 @@
         <v>178702</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>155112</v>
+        <v>156918</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>201316</v>
+        <v>203304</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2720426021763823</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2361301048628549</v>
+        <v>0.2388799420506707</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3064681470812641</v>
+        <v>0.3094940912460583</v>
       </c>
     </row>
     <row r="19">
@@ -3775,19 +3775,19 @@
         <v>64180</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>49826</v>
+        <v>50416</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>79968</v>
+        <v>79159</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1841926266814193</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1429967719735304</v>
+        <v>0.1446900518643722</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2295045088044508</v>
+        <v>0.2271812354510692</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>58</v>
@@ -3796,19 +3796,19 @@
         <v>57908</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>45219</v>
+        <v>44935</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>71867</v>
+        <v>72154</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1877363317812583</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1466007365590976</v>
+        <v>0.1456791620823847</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2329904211448951</v>
+        <v>0.2339238000810326</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>118</v>
@@ -3817,19 +3817,19 @@
         <v>122088</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>104077</v>
+        <v>102749</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>142446</v>
+        <v>144063</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1858566268268458</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.158438918018824</v>
+        <v>0.1564175469759007</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.216849090097257</v>
+        <v>0.2193109183291798</v>
       </c>
     </row>
     <row r="20">
@@ -3846,19 +3846,19 @@
         <v>46692</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>34910</v>
+        <v>34211</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>61770</v>
+        <v>62968</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1340037738350645</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1001897439277863</v>
+        <v>0.09818366094699084</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1772776011912575</v>
+        <v>0.1807148313171187</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>47</v>
@@ -3867,19 +3867,19 @@
         <v>50757</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>37635</v>
+        <v>37727</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>64672</v>
+        <v>65173</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1645546411628387</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1220114045743607</v>
+        <v>0.1223112386593235</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2096670432002872</v>
+        <v>0.2112886393264408</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>89</v>
@@ -3888,19 +3888,19 @@
         <v>97449</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>80134</v>
+        <v>78353</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>116169</v>
+        <v>117798</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1483493940952359</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1219904387753553</v>
+        <v>0.1192780301517397</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1768467327373165</v>
+        <v>0.1793261467592216</v>
       </c>
     </row>
     <row r="21">
@@ -3992,19 +3992,19 @@
         <v>356290</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>321243</v>
+        <v>323633</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>387099</v>
+        <v>392191</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2521627387361826</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2273583045145816</v>
+        <v>0.2290494574011946</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2739677269753427</v>
+        <v>0.2775710774042491</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>227</v>
@@ -4013,19 +4013,19 @@
         <v>229876</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>204400</v>
+        <v>203353</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>259230</v>
+        <v>256667</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2235872153101842</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1988087083439752</v>
+        <v>0.1977906318004371</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.252138432293023</v>
+        <v>0.249645898297921</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>563</v>
@@ -4034,19 +4034,19 @@
         <v>586166</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>545332</v>
+        <v>542076</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>634697</v>
+        <v>629683</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.240127323280049</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2233994171429685</v>
+        <v>0.2220657497267533</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2600082965285118</v>
+        <v>0.257954448155574</v>
       </c>
     </row>
     <row r="23">
@@ -4063,19 +4063,19 @@
         <v>271512</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>240655</v>
+        <v>243335</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>301767</v>
+        <v>300282</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1921609485814632</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1703226515576978</v>
+        <v>0.1722190652385317</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2135741919768448</v>
+        <v>0.2125233703539349</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>202</v>
@@ -4084,19 +4084,19 @@
         <v>204154</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>180369</v>
+        <v>179431</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>232274</v>
+        <v>231407</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1985692091688182</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1754350688991671</v>
+        <v>0.1745228694812321</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2259202346646741</v>
+        <v>0.2250771910011052</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>453</v>
@@ -4105,19 +4105,19 @@
         <v>475665</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>436726</v>
+        <v>434779</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>516772</v>
+        <v>516082</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1948599745055102</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1789081581547214</v>
+        <v>0.1781105712102067</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2116997427736844</v>
+        <v>0.2114169852850243</v>
       </c>
     </row>
     <row r="24">
@@ -4134,19 +4134,19 @@
         <v>403147</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>368124</v>
+        <v>365849</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>437733</v>
+        <v>436098</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.285325649859643</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2605380787253086</v>
+        <v>0.2589281501288466</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3098031194481999</v>
+        <v>0.3086463759729595</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>272</v>
@@ -4155,19 +4155,19 @@
         <v>281316</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>253478</v>
+        <v>255078</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>310946</v>
+        <v>314671</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2736200251800375</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2465442273606895</v>
+        <v>0.2480997416448272</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3024396670897749</v>
+        <v>0.3060632242731632</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>645</v>
@@ -4176,19 +4176,19 @@
         <v>684463</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>638547</v>
+        <v>643635</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>729521</v>
+        <v>728502</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2803954844837589</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2615855453967622</v>
+        <v>0.2636701237813961</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2988536802379433</v>
+        <v>0.2984362828892695</v>
       </c>
     </row>
     <row r="25">
@@ -4205,19 +4205,19 @@
         <v>237949</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>210404</v>
+        <v>209576</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>269824</v>
+        <v>267185</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1684074849409352</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1489122298018116</v>
+        <v>0.1483265306478401</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1909664159206011</v>
+        <v>0.1890991163908651</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>177</v>
@@ -4226,19 +4226,19 @@
         <v>179312</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>155449</v>
+        <v>154871</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>203602</v>
+        <v>202392</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1744069958057647</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1511961942007202</v>
+        <v>0.1506340156405415</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1980319918810265</v>
+        <v>0.1968557155787084</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>403</v>
@@ -4247,19 +4247,19 @@
         <v>417262</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>382006</v>
+        <v>384920</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>458698</v>
+        <v>456377</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1709343539930036</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1564916599335929</v>
+        <v>0.1576855603049511</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1879091170204056</v>
+        <v>0.1869582821609283</v>
       </c>
     </row>
     <row r="26">
@@ -4276,19 +4276,19 @@
         <v>144039</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>120531</v>
+        <v>121756</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>170609</v>
+        <v>169579</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.101943177881776</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.085304884975467</v>
+        <v>0.08617208108048416</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1207476256793028</v>
+        <v>0.1200187187137644</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>126</v>
@@ -4297,19 +4297,19 @@
         <v>133468</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>112862</v>
+        <v>114861</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>155052</v>
+        <v>158490</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1298165545351955</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1097748192416753</v>
+        <v>0.111719052781729</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1508104093385041</v>
+        <v>0.1541543978338177</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>254</v>
@@ -4318,19 +4318,19 @@
         <v>277507</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>246214</v>
+        <v>246921</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>314377</v>
+        <v>312675</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1136828637376782</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1008634270524969</v>
+        <v>0.1011532345147937</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1287869140276141</v>
+        <v>0.1280897665090457</v>
       </c>
     </row>
     <row r="27">
@@ -4661,19 +4661,19 @@
         <v>16269</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9025</v>
+        <v>9408</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25682</v>
+        <v>25419</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.398020818537213</v>
+        <v>0.3980208185372131</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2207805830474084</v>
+        <v>0.230162415316663</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6282837681847014</v>
+        <v>0.6218683782651195</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -4682,19 +4682,19 @@
         <v>5659</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2629</v>
+        <v>2731</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9604</v>
+        <v>10064</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2504048828860111</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1163338652712737</v>
+        <v>0.1208477131369549</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4249528121799995</v>
+        <v>0.4453111897708217</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -4703,19 +4703,19 @@
         <v>21929</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14364</v>
+        <v>14557</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32316</v>
+        <v>32632</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3454644089101906</v>
+        <v>0.3454644089101905</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2262859204787528</v>
+        <v>0.2293302622713869</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.509113508995272</v>
+        <v>0.5140891054883933</v>
       </c>
     </row>
     <row r="5">
@@ -4732,19 +4732,19 @@
         <v>10971</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5046</v>
+        <v>5265</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18296</v>
+        <v>18454</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2683864541803516</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1234557683979478</v>
+        <v>0.1288044286680683</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4475893534534611</v>
+        <v>0.4514593689761129</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -4753,19 +4753,19 @@
         <v>2971</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>766</v>
+        <v>741</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6375</v>
+        <v>6801</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1314795561975097</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03387605750653036</v>
+        <v>0.03277558829993367</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2820679966472294</v>
+        <v>0.3009249290850013</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>13</v>
@@ -4774,19 +4774,19 @@
         <v>13942</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7400</v>
+        <v>7403</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>22604</v>
+        <v>21922</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2196428346015488</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1165813664678444</v>
+        <v>0.1166208332326137</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3560998662335307</v>
+        <v>0.3453516834556105</v>
       </c>
     </row>
     <row r="6">
@@ -4803,19 +4803,19 @@
         <v>7032</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2649</v>
+        <v>2751</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15261</v>
+        <v>14413</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1720213479354746</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06480133945265687</v>
+        <v>0.06730970987952151</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3733600075084406</v>
+        <v>0.3526103252948527</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>15</v>
@@ -4824,19 +4824,19 @@
         <v>10861</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6933</v>
+        <v>6666</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14879</v>
+        <v>14824</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.4805551181993869</v>
+        <v>0.480555118199387</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3067554169161772</v>
+        <v>0.294955078343193</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6583591262391741</v>
+        <v>0.655925474741422</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>21</v>
@@ -4845,19 +4845,19 @@
         <v>17892</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>11241</v>
+        <v>11385</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>25515</v>
+        <v>26158</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2818701060809019</v>
+        <v>0.2818701060809018</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1770973668076417</v>
+        <v>0.1793609841532315</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4019650847676718</v>
+        <v>0.4120950467210131</v>
       </c>
     </row>
     <row r="7">
@@ -4874,19 +4874,19 @@
         <v>5780</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1767</v>
+        <v>1697</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13198</v>
+        <v>13640</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1414001105347773</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04322202230625592</v>
+        <v>0.0415106968785911</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3228887675931789</v>
+        <v>0.3337016394664045</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -4895,19 +4895,19 @@
         <v>3109</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1175</v>
+        <v>1136</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6472</v>
+        <v>6524</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.137560442717092</v>
+        <v>0.1375604427170921</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05200337842667831</v>
+        <v>0.05026632300214352</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2863750017581311</v>
+        <v>0.2886893384217843</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -4916,19 +4916,19 @@
         <v>8889</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4287</v>
+        <v>4602</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>16551</v>
+        <v>16945</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1400330551842304</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06754048068668918</v>
+        <v>0.07250497559587146</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2607378089707597</v>
+        <v>0.2669500127265248</v>
       </c>
     </row>
     <row r="8">
@@ -4948,16 +4948,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4832</v>
+        <v>4865</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.02017126881218349</v>
+        <v>0.0201712688121835</v>
       </c>
       <c r="H8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1182008046709716</v>
+        <v>0.1190138027409604</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -4982,16 +4982,16 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4969</v>
+        <v>4056</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.01298959522312836</v>
+        <v>0.01298959522312835</v>
       </c>
       <c r="V8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.078285679034998</v>
+        <v>0.06389880077375251</v>
       </c>
     </row>
     <row r="9">
@@ -5083,19 +5083,19 @@
         <v>82728</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>65946</v>
+        <v>65677</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>101317</v>
+        <v>100537</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2801479266726853</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2233186890709776</v>
+        <v>0.2224049752014487</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3430969890901042</v>
+        <v>0.3404531726045905</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>93</v>
@@ -5104,19 +5104,19 @@
         <v>78288</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>65607</v>
+        <v>64961</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>92874</v>
+        <v>92587</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.311003861902229</v>
+        <v>0.3110038619022289</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2606296880550403</v>
+        <v>0.2580607390634805</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3689494810266598</v>
+        <v>0.3678101473344096</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>161</v>
@@ -5125,19 +5125,19 @@
         <v>161016</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>139503</v>
+        <v>139649</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>185851</v>
+        <v>183132</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.294346911267638</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2550199660076636</v>
+        <v>0.2552860343014216</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3397463400809391</v>
+        <v>0.3347761866437176</v>
       </c>
     </row>
     <row r="11">
@@ -5154,19 +5154,19 @@
         <v>62403</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>45708</v>
+        <v>47057</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>80688</v>
+        <v>84004</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2113199378174017</v>
+        <v>0.2113199378174018</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1547824600076897</v>
+        <v>0.1593517432385788</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2732382971641277</v>
+        <v>0.2844682931224467</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>57</v>
@@ -5175,19 +5175,19 @@
         <v>42119</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>31589</v>
+        <v>33080</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>52221</v>
+        <v>53554</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1673197030310341</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1254902358931295</v>
+        <v>0.1314138882639482</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2074529965162845</v>
+        <v>0.2127456511506531</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>104</v>
@@ -5196,19 +5196,19 @@
         <v>104522</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>86665</v>
+        <v>86019</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>126709</v>
+        <v>127098</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1910723371124409</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1584293038370372</v>
+        <v>0.1572477479668802</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.23163081276184</v>
+        <v>0.2323419670931144</v>
       </c>
     </row>
     <row r="12">
@@ -5225,19 +5225,19 @@
         <v>86497</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>68405</v>
+        <v>69212</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>106801</v>
+        <v>104701</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2929087838313779</v>
+        <v>0.292908783831378</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2316425611903743</v>
+        <v>0.234377200734992</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3616656850756481</v>
+        <v>0.3545541578877934</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>108</v>
@@ -5246,19 +5246,19 @@
         <v>79636</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>67318</v>
+        <v>66406</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>94133</v>
+        <v>93964</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.316357954689056</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.267424670554165</v>
+        <v>0.2638024855222789</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3739517020495278</v>
+        <v>0.3732802502783387</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>182</v>
@@ -5267,19 +5267,19 @@
         <v>166132</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>143457</v>
+        <v>146931</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>189870</v>
+        <v>190957</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3036993955336539</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2622479145537206</v>
+        <v>0.2685981997360736</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3470945183308827</v>
+        <v>0.3490811479919787</v>
       </c>
     </row>
     <row r="13">
@@ -5296,19 +5296,19 @@
         <v>45416</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>32692</v>
+        <v>33228</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>61096</v>
+        <v>59887</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1537949764733378</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1107071198306711</v>
+        <v>0.1125215710751188</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2068931083936029</v>
+        <v>0.2028000915252985</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>40</v>
@@ -5317,19 +5317,19 @@
         <v>31593</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23556</v>
+        <v>23359</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>43887</v>
+        <v>42033</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1255070707205387</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09357887753946469</v>
+        <v>0.09279717185429105</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1743441830244788</v>
+        <v>0.1669805007336804</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>79</v>
@@ -5338,19 +5338,19 @@
         <v>77009</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>61624</v>
+        <v>62100</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>96981</v>
+        <v>96495</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1407777227417805</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1126522336005468</v>
+        <v>0.1135223935560941</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1772861976814128</v>
+        <v>0.1763995367869794</v>
       </c>
     </row>
     <row r="14">
@@ -5367,19 +5367,19 @@
         <v>18258</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10311</v>
+        <v>10757</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>29374</v>
+        <v>28570</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.06182837520519726</v>
+        <v>0.06182837520519727</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0349181264770258</v>
+        <v>0.03642561405177488</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09947120719751534</v>
+        <v>0.09674936565009033</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>25</v>
@@ -5388,19 +5388,19 @@
         <v>20091</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>13562</v>
+        <v>13749</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>28837</v>
+        <v>29716</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07981140965714241</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05387433129242102</v>
+        <v>0.05461846962033445</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1145576404732112</v>
+        <v>0.1180500217992112</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>40</v>
@@ -5409,19 +5409,19 @@
         <v>38349</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>27309</v>
+        <v>28762</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>51595</v>
+        <v>52044</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07010363334448683</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04992163688913451</v>
+        <v>0.0525783234981314</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09431838487123502</v>
+        <v>0.09513989086264689</v>
       </c>
     </row>
     <row r="15">
@@ -5513,19 +5513,19 @@
         <v>43278</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>31379</v>
+        <v>30934</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>58307</v>
+        <v>56521</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3134112946311344</v>
+        <v>0.3134112946311343</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2272402622227315</v>
+        <v>0.2240198348321282</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4222446096347872</v>
+        <v>0.4093081341046084</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>41</v>
@@ -5534,19 +5534,19 @@
         <v>35862</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>25734</v>
+        <v>27494</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>45523</v>
+        <v>46069</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3124556359704104</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2242108992261256</v>
+        <v>0.2395488023103764</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3966324458957323</v>
+        <v>0.4013877311938348</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>75</v>
@@ -5555,19 +5555,19 @@
         <v>79140</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>65005</v>
+        <v>64483</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>96698</v>
+        <v>94736</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3129775212065132</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2570766819677598</v>
+        <v>0.2550123407349543</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3824147348783575</v>
+        <v>0.3746539022297645</v>
       </c>
     </row>
     <row r="17">
@@ -5584,19 +5584,19 @@
         <v>20881</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12727</v>
+        <v>13603</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>32192</v>
+        <v>32449</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.151213711758447</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09216491817611168</v>
+        <v>0.09851088551583127</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2331275236403404</v>
+        <v>0.2349848679132878</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>23</v>
@@ -5605,19 +5605,19 @@
         <v>17021</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10988</v>
+        <v>11169</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>24753</v>
+        <v>25167</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1483017973168317</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09573459281786033</v>
+        <v>0.09731367875353986</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2156645436230516</v>
+        <v>0.2192742427639422</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>42</v>
@@ -5626,19 +5626,19 @@
         <v>37902</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>28187</v>
+        <v>27618</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>51719</v>
+        <v>49995</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.1498919939197925</v>
+        <v>0.1498919939197926</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1114712043158557</v>
+        <v>0.1092196781316269</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2045327835451196</v>
+        <v>0.1977183564916913</v>
       </c>
     </row>
     <row r="18">
@@ -5655,19 +5655,19 @@
         <v>39799</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>28684</v>
+        <v>29124</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>52879</v>
+        <v>53696</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2882137474582848</v>
+        <v>0.2882137474582847</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.207719961407774</v>
+        <v>0.2109107215948436</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3829380964283705</v>
+        <v>0.3888511015959075</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>38</v>
@@ -5676,19 +5676,19 @@
         <v>28745</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>20977</v>
+        <v>21541</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>37871</v>
+        <v>38737</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2504475935501617</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1827679472666354</v>
+        <v>0.1876783359780542</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3299594431503897</v>
+        <v>0.3375035729470696</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>74</v>
@@ -5697,19 +5697,19 @@
         <v>68544</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>55727</v>
+        <v>54290</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>84787</v>
+        <v>82775</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2710716918386673</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2203854116209772</v>
+        <v>0.2147035399910524</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3353094543489891</v>
+        <v>0.3273508657081261</v>
       </c>
     </row>
     <row r="19">
@@ -5726,19 +5726,19 @@
         <v>10775</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5227</v>
+        <v>5128</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20461</v>
+        <v>18851</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07803090928227042</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03785434496977889</v>
+        <v>0.03713354265368036</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1481720569359293</v>
+        <v>0.136517382992505</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>26</v>
@@ -5747,19 +5747,19 @@
         <v>19809</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13254</v>
+        <v>13203</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27872</v>
+        <v>28083</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1725942168190833</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1154778340856369</v>
+        <v>0.1150360293172806</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2428437777846021</v>
+        <v>0.2446812114407263</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>36</v>
@@ -5768,19 +5768,19 @@
         <v>30584</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>22381</v>
+        <v>21817</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>41748</v>
+        <v>42007</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1209531904686101</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08851221170079106</v>
+        <v>0.08627986015415183</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1651006277988012</v>
+        <v>0.1661261910802061</v>
       </c>
     </row>
     <row r="20">
@@ -5797,19 +5797,19 @@
         <v>23355</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>12828</v>
+        <v>13905</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>37132</v>
+        <v>37243</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1691303368698635</v>
+        <v>0.1691303368698634</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09289860948104278</v>
+        <v>0.1006954946238927</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2689001513555221</v>
+        <v>0.269703112565167</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>17</v>
@@ -5818,19 +5818,19 @@
         <v>13337</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7739</v>
+        <v>8026</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>20594</v>
+        <v>20366</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.1162007563435128</v>
+        <v>0.1162007563435127</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06742672632377127</v>
+        <v>0.06992499543710691</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1794351315213802</v>
+        <v>0.1774406173478744</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>31</v>
@@ -5839,19 +5839,19 @@
         <v>36692</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>24906</v>
+        <v>25980</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>51167</v>
+        <v>55119</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1451056025664169</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09849743053024347</v>
+        <v>0.1027442317735478</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2023495068617295</v>
+        <v>0.2179791925187079</v>
       </c>
     </row>
     <row r="21">
@@ -5943,19 +5943,19 @@
         <v>142276</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>118667</v>
+        <v>120600</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>166657</v>
+        <v>166617</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2999921591331813</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2502108612965108</v>
+        <v>0.2542872119058908</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3513991645390963</v>
+        <v>0.3513162094725428</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>141</v>
@@ -5964,19 +5964,19 @@
         <v>119808</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>102682</v>
+        <v>103829</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>137164</v>
+        <v>139366</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3079124123418891</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.26389769765424</v>
+        <v>0.2668456858082228</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3525178679345057</v>
+        <v>0.358175816337877</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>254</v>
@@ -5985,19 +5985,19 @@
         <v>262084</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>234392</v>
+        <v>234617</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>293539</v>
+        <v>290326</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3035616405075258</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.271486690757881</v>
+        <v>0.2717474314754308</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3399943398614471</v>
+        <v>0.3362723623395694</v>
       </c>
     </row>
     <row r="23">
@@ -6014,19 +6014,19 @@
         <v>94255</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>77091</v>
+        <v>76024</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>118087</v>
+        <v>115112</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1987377995638573</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1625488889075473</v>
+        <v>0.1602984510536014</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.248989207340726</v>
+        <v>0.2427152580995817</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>84</v>
@@ -6035,19 +6035,19 @@
         <v>62111</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>50668</v>
+        <v>49522</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>76331</v>
+        <v>75137</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1596282810666628</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1302192659183637</v>
+        <v>0.1272732912903702</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1961736440742322</v>
+        <v>0.193105613162719</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>159</v>
@@ -6056,19 +6056,19 @@
         <v>156366</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>132347</v>
+        <v>134681</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>182703</v>
+        <v>181216</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.18111201233753</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1532923535773715</v>
+        <v>0.1559952627384077</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2116168372101776</v>
+        <v>0.2098950191615594</v>
       </c>
     </row>
     <row r="24">
@@ -6085,19 +6085,19 @@
         <v>133327</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>109293</v>
+        <v>114063</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>155594</v>
+        <v>159396</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2811227184980543</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2304469597106108</v>
+        <v>0.2405047597664876</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3280724461710662</v>
+        <v>0.3360897380049965</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>161</v>
@@ -6106,19 +6106,19 @@
         <v>119241</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>104365</v>
+        <v>103427</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>136292</v>
+        <v>136323</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.3064530022467322</v>
+        <v>0.3064530022467323</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2682210756540928</v>
+        <v>0.2658116901394134</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3502763382773488</v>
+        <v>0.3503552313376103</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>277</v>
@@ -6127,19 +6127,19 @@
         <v>252568</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>225696</v>
+        <v>226345</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>280901</v>
+        <v>283349</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2925385121179302</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2614147515630659</v>
+        <v>0.2621658453709393</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3253560505675749</v>
+        <v>0.3281915697308972</v>
       </c>
     </row>
     <row r="25">
@@ -6156,19 +6156,19 @@
         <v>61971</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>47137</v>
+        <v>48221</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>81172</v>
+        <v>80500</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1306671432166201</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09938975648771557</v>
+        <v>0.1016754413760928</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1711520089444957</v>
+        <v>0.1697353859521156</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>71</v>
@@ -6177,19 +6177,19 @@
         <v>54511</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>41545</v>
+        <v>43934</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>67611</v>
+        <v>69129</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1400965894075108</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1067728411299582</v>
+        <v>0.1129114802466359</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1737632763866754</v>
+        <v>0.1776648725708043</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>125</v>
@@ -6198,19 +6198,19 @@
         <v>116482</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>96021</v>
+        <v>97143</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>139401</v>
+        <v>137675</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1349167841891793</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1112173744014177</v>
+        <v>0.1125165862451474</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1614621201027013</v>
+        <v>0.1594635251635821</v>
       </c>
     </row>
     <row r="26">
@@ -6227,19 +6227,19 @@
         <v>42437</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>28626</v>
+        <v>29282</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>59955</v>
+        <v>59256</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.08948017958828706</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06035860059290062</v>
+        <v>0.06174172015502919</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.126416852954743</v>
+        <v>0.1249429727358948</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>42</v>
@@ -6248,19 +6248,19 @@
         <v>33427</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>24594</v>
+        <v>23917</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>45180</v>
+        <v>44381</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08590971493720519</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06320632997663715</v>
+        <v>0.06146646844917802</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1161134316289215</v>
+        <v>0.1140621215226989</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>72</v>
@@ -6269,19 +6269,19 @@
         <v>75865</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>58574</v>
+        <v>58826</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>94353</v>
+        <v>96194</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.08787105084783463</v>
+        <v>0.08787105084783461</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06784372383999233</v>
+        <v>0.0681355319610521</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1092848702452804</v>
+        <v>0.1114169808231981</v>
       </c>
     </row>
     <row r="27">
